--- a/static/files/esa-jsa-age-bands.xlsx
+++ b/static/files/esa-jsa-age-bands.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eodell\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eodell\Documents\Code\evanodell.com\static\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC7997E9-8953-4EF4-ACCA-2324246F72A0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4868110B-593C-4D2B-ADEC-F0E43147BA80}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2925" yWindow="975" windowWidth="19140" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2040" yWindow="1110" windowWidth="16020" windowHeight="9750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Sheet 0" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>heading</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>JSA</t>
+  </si>
+  <si>
+    <t>Data from May 2019</t>
   </si>
 </sst>
 </file>
@@ -1152,7 +1155,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1443,7 +1446,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
